--- a/Model/Correlation/HyperParamIndices/13july/results_0.5_1y.xlsx
+++ b/Model/Correlation/HyperParamIndices/13july/results_0.5_1y.xlsx
@@ -5,22 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Croissant\Internship\Yuanta\Model\Correlation\HyperParamIndices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Croissant\Internship\Yuanta\Model\Correlation\HyperParamIndices\13july\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB5F9D1-5006-41E9-8A33-7A313A508CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4DEF4F-C12E-4CE5-B995-E9D94C5870B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="263">
   <si>
     <t>Stock Pair</t>
   </si>
@@ -901,15 +914,21 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
         <right style="thin">
           <color auto="1"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -929,21 +948,15 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
         <right style="thin">
           <color auto="1"/>
         </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -960,10 +973,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9780192C-357C-4246-BD33-0A3D724716DC}" name="Table1" displayName="Table1" ref="A1:R245" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9780192C-357C-4246-BD33-0A3D724716DC}" name="Table1" displayName="Table1" ref="A1:R245" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:R245" xr:uid="{9780192C-357C-4246-BD33-0A3D724716DC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R245">
+    <sortCondition ref="A2:A245"/>
+  </sortState>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{D6CB1DAF-0772-4FC1-AAF4-916AD4CA0E98}" name="Column1" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{D6CB1DAF-0772-4FC1-AAF4-916AD4CA0E98}" name="Column1" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{E8E3899C-7483-4A1B-8ED9-5538FE5966FA}" name="Stock Pair"/>
     <tableColumn id="3" xr3:uid="{B9BD5D1C-D7DC-4DFE-9313-57DAEF5E6BCE}" name="Buy Annual Return"/>
     <tableColumn id="4" xr3:uid="{4F66FC79-0322-4DA6-9426-ADD16C3E5110}" name="Buy Cumulative Return"/>
@@ -1273,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="K230" sqref="K230"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8453,8 +8469,8 @@
       <c r="G135">
         <v>1.2127524936440881</v>
       </c>
-      <c r="H135" t="s">
-        <v>114</v>
+      <c r="H135">
+        <v>0</v>
       </c>
       <c r="I135">
         <v>3</v>
@@ -14228,22 +14244,28 @@
         <v>0.1177185465229926</v>
       </c>
       <c r="D245" s="3">
+        <f>SUBTOTAL(101,D2:D244)</f>
         <v>0.12037985020834149</v>
       </c>
       <c r="E245" s="3">
-        <v>7.9136044686289583E-2</v>
+        <f>SUBTOTAL(101,E2:E244)</f>
+        <v>7.9136044686289556E-2</v>
       </c>
       <c r="F245" s="3">
-        <v>-5.4583879244196692E-2</v>
+        <f>SUBTOTAL(101,F2:F244)</f>
+        <v>-5.4583879244196651E-2</v>
       </c>
       <c r="G245" s="3">
-        <v>1.422239649441158</v>
-      </c>
-      <c r="H245" s="3" t="s">
-        <v>114</v>
+        <f>AVERAGE(G2:G244)</f>
+        <v>1.4222396494411587</v>
+      </c>
+      <c r="H245" s="3">
+        <f>AVERAGE(H2:H244)</f>
+        <v>2.2111856366302547</v>
       </c>
       <c r="I245" s="3">
-        <v>19.004115226337451</v>
+        <f>SUBTOTAL(101,I2:I244)</f>
+        <v>19.004115226337447</v>
       </c>
       <c r="J245" s="3">
         <v>18.76019287520878</v>
@@ -14261,10 +14283,12 @@
         <v>-5.809473504819692E-2</v>
       </c>
       <c r="O245" s="3">
-        <v>1.335913330291558</v>
-      </c>
-      <c r="P245" s="3" t="s">
-        <v>114</v>
+        <f>SUBTOTAL(101,O2:O244)</f>
+        <v>1.3359133302915582</v>
+      </c>
+      <c r="P245" s="3">
+        <f>SUBTOTAL(101,P2:P244)</f>
+        <v>2.1083856042590901</v>
       </c>
       <c r="Q245" s="3">
         <v>21.489711934156379</v>
